--- a/FoundmentalPhyExp/霍尔效应/霍尔系数.xlsx
+++ b/FoundmentalPhyExp/霍尔效应/霍尔系数.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AW\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workpath\Notes\FoundmentalPhyExp\霍尔效应\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6430"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6432" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="123" sheetId="1" r:id="rId1"/>
+    <sheet name="2+" sheetId="7" r:id="rId2"/>
+    <sheet name="3" sheetId="8" r:id="rId3"/>
+    <sheet name="4" sheetId="2" r:id="rId4"/>
+    <sheet name="4-1" sheetId="9" r:id="rId5"/>
+    <sheet name="5" sheetId="3" r:id="rId6"/>
+    <sheet name="6" sheetId="4" r:id="rId7"/>
+    <sheet name="7" sheetId="5" r:id="rId8"/>
+    <sheet name="8" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="76">
   <si>
     <t>Ih</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,39 +352,6 @@
     <t>列4</t>
   </si>
   <si>
-    <r>
-      <t>𝑈</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria Math"/>
-        <family val="1"/>
-      </rPr>
-      <t>𝑚𝑎𝑥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria Math"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (𝑚𝑉)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t>测量值：</t>
   </si>
   <si>
@@ -427,15 +402,583 @@
     <t>列16</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>测量值(mT)：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U _max(mT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>轴向距离</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria Math"/>
+        <family val="1"/>
+      </rPr>
+      <t>X (mm)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>f = 120 Hz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>U_max(mV)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U _max(mV)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">表 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亥姆霍兹线圈磁场径向分布测量数据记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>𝑈</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Bell MT"/>
+        <family val="1"/>
+      </rPr>
+      <t>𝑚𝑎𝑥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Bell MT"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (𝑚𝑉) </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">f = 120 Hz </t>
+  </si>
+  <si>
+    <r>
+      <t>轴向距离</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Bell MT"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">X (mm) </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">探测线圈转角θ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">𝑈 (𝑚𝑉) </t>
+  </si>
+  <si>
+    <r>
+      <t>计算值：U = 𝑈</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val=".萍方-简"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">𝑚𝑎𝑥 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val=".萍方-简"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">∙ 𝑐𝑜𝑠𝜃 </t>
+    </r>
+  </si>
+  <si>
+    <t>f=120Hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U_max=8.59(mV)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">7 探测线圈转角与感应电压数据记录 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">励磁电流频率f (Hz) </t>
+  </si>
+  <si>
+    <r>
+      <t>𝑈</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="华文细黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𝑚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="华文细黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> (𝑚𝑉) </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">I = 60 mA </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">表 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>励磁电流频率对磁场强度的影响</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="华文细黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>霍尔电压：𝑈</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="华文细黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𝐻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="华文细黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> (mV) </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">磁场强度： B (mT) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>励磁电流：I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="华文细黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="华文细黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> (A)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>𝑈</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Baskerville Old Face"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Baskerville Old Face"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>𝑈</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Baskerville Old Face"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Baskerville Old Face"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>𝑈</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Baskerville Old Face"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Baskerville Old Face"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>𝑈</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Baskerville Old Face"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Baskerville Old Face"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>霍尔电流：I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="华文细黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">H </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="华文细黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= 10 (𝑚𝐴)  </t>
+    </r>
+  </si>
+  <si>
+    <t>Uh(mV)</t>
+  </si>
+  <si>
+    <t>Im(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B(T)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算值(mT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>励磁电流：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="1"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="1"/>
+      </rPr>
+      <t>(A)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>霍尔电压：</t>
+  </si>
+  <si>
+    <r>
+      <t>𝑈</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="1"/>
+      </rPr>
+      <t>𝐻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="1"/>
+      </rPr>
+      <t>(mV)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>磁场强度： B (mT)</t>
+  </si>
+  <si>
+    <r>
+      <t>励磁电流：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">IM (A)  </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁场强度： B (T)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000E+00"/>
+  </numFmts>
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,6 +1039,143 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Bell MT"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Century"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Bell MT"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="华文细黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="华文细黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="华文细黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val=".萍方-简"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val=".萍方-简"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val=".萍方-简"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="华文细黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="华文细黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Baskerville Old Face"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Baskerville Old Face"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria Math"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria Math"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="华文细黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -505,7 +1185,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -690,13 +1370,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,6 +1514,150 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -757,41 +1696,130 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -822,9 +1850,44 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -832,6 +1895,41 @@
         <top style="medium">
           <color indexed="64"/>
         </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -900,7 +1998,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -941,7 +2038,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>'123'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1012,7 +2109,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1045,7 +2141,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1078,7 +2173,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:f>'123'!$B$1:$F$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1102,7 +2197,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:f>'123'!$B$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1352,7 +2447,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1393,7 +2487,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$23</c:f>
+              <c:f>'123'!$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1464,7 +2558,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1535,7 +2628,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$22:$L$22</c:f>
+              <c:f>'123'!$B$22:$L$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1577,7 +2670,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$L$23</c:f>
+              <c:f>'123'!$B$23:$L$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1805,6 +2898,947 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>B(T) </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+                <a:sym typeface="Symbol" panose="05050102010706020507" pitchFamily="18" charset="2"/>
+              </a:rPr>
+              <a:t></a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> IM(A)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3'!$B$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3'!$B$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.9945440374123137E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4809041309431021E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9715510522213561E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4816835541699136E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9869446609508971E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5116913484021816E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.041309431021044E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10556313328137178</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1205183164458301</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13581449727201869</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1509158222915043</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4BF6-4500-99CF-FC1E1C586B0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="653775016"/>
+        <c:axId val="653777312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="653775016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Im(A)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="653777312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="653777312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>B(T)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="653775016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4-1'!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4-1'!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.3125487139516761E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2743569758378789E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1582229150428685E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12275915822291504</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15315666406858922</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4DBA-4327-AA25-9D7652439FC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="537446440"/>
+        <c:axId val="537446768"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="537446440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="537446768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="537446768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="537446440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1885,6 +3919,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2402,6 +4516,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2934,7 +6080,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2964,7 +6116,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2982,19 +6140,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>595615</xdr:rowOff>
+      <xdr:colOff>486410</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>70901</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>234949</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>135889</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 96769"/>
+        <xdr:cNvPr id="4" name="Picture 96769">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3014,8 +6178,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="463550" y="11968465"/>
-          <a:ext cx="1504950" cy="674384"/>
+          <a:off x="486410" y="13146821"/>
+          <a:ext cx="1784350" cy="941288"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3036,20 +6200,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>433070</xdr:colOff>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 96770"/>
+        <xdr:cNvPr id="5" name="Picture 96770">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3069,8 +6239,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4743450" y="14090650"/>
-          <a:ext cx="1797050" cy="508000"/>
+          <a:off x="6972300" y="12457430"/>
+          <a:ext cx="1644650" cy="500380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3091,20 +6261,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>229870</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>100330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 96771"/>
+        <xdr:cNvPr id="6" name="Picture 96771">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3124,8 +6300,542 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="298450" y="13506450"/>
-          <a:ext cx="3841750" cy="209550"/>
+          <a:off x="2927350" y="13702030"/>
+          <a:ext cx="3522980" cy="207010"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16AF70FB-201C-490F-AE6E-1797A18E6847}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>486410</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>30479</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>135888</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 96769">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCEA2680-08CA-4CA2-98F4-13889126A86F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="486410" y="2034539"/>
+          <a:ext cx="1189990" cy="455929"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>59690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>433070</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 96770">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E3DE302-FC01-409C-9A5A-CD8CD96213E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6377940" y="1713230"/>
+          <a:ext cx="1644650" cy="500380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>229870</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 96771">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94918BFC-4A8F-41F4-95D9-09C273931894}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2927350" y="12825730"/>
+          <a:ext cx="3522980" cy="207010"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="图表 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{608E229E-07AB-4432-B8DE-133D0DC394D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>484094</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>206188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>413273</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>771862</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 96773">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{436767E8-D2E9-4576-B7B6-F9F82A6BC46E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2366682" y="1819835"/>
+          <a:ext cx="3649532" cy="565674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>792480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1021080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 96775">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D830D640-3110-40CB-B120-678DA269B63F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3032760" y="2788920"/>
+          <a:ext cx="1127760" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>396239</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 96780">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5387B4E9-600C-445B-ADBF-5B76D8440222}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2987040" y="5173980"/>
+          <a:ext cx="624840" cy="251459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>396240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 96782">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A61F9E8-CF84-49DD-9D08-F84E1F989DC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1409700" y="1379220"/>
+          <a:ext cx="1127760" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3148,25 +6858,75 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A53:P57" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
-  <autoFilter ref="A53:P57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2" displayName="表2" ref="A53:P58" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
+  <autoFilter ref="A53:P58" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="列1"/>
-    <tableColumn id="2" name="列2"/>
-    <tableColumn id="3" name="列3"/>
-    <tableColumn id="4" name="列4"/>
-    <tableColumn id="5" name="列5"/>
-    <tableColumn id="6" name="列6"/>
-    <tableColumn id="7" name="列7"/>
-    <tableColumn id="8" name="列8"/>
-    <tableColumn id="9" name="列9"/>
-    <tableColumn id="10" name="列10"/>
-    <tableColumn id="11" name="列11"/>
-    <tableColumn id="12" name="列12"/>
-    <tableColumn id="13" name="列13"/>
-    <tableColumn id="14" name="列14"/>
-    <tableColumn id="15" name="列15"/>
-    <tableColumn id="16" name="列16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="列1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="列2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="列3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="列4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="列5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="列6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="列7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="列8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="列9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="列10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="列11"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="列12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="列13"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="列14"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="列15"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="列16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F29D53DD-5C5C-4580-91FA-DEFABE7F6B65}" name="表2_2" displayName="表2_2" ref="A1:P6" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="A1:P6" xr:uid="{9022EC84-BD7B-49C5-8713-DD15B830FC2C}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{83441C31-763F-4082-BAAA-EA41521EBDFB}" name="列1"/>
+    <tableColumn id="2" xr3:uid="{40441A6B-C968-44DE-A53C-ED8C829FAD97}" name="列2"/>
+    <tableColumn id="3" xr3:uid="{DCB1D211-F71B-4C2C-A18A-D2128C678C35}" name="列3"/>
+    <tableColumn id="4" xr3:uid="{EA92FD58-895A-4F6E-AC3B-F8A8E1108D45}" name="列4"/>
+    <tableColumn id="5" xr3:uid="{EF2607E8-7877-4E75-B875-4DE83AD94363}" name="列5"/>
+    <tableColumn id="6" xr3:uid="{13E62011-E35F-4AC8-8CFF-24DA40593259}" name="列6"/>
+    <tableColumn id="7" xr3:uid="{4E8A5FB0-5011-4AD5-B11A-0B424ED9A844}" name="列7"/>
+    <tableColumn id="8" xr3:uid="{F32B6170-1957-4DEA-ABFC-D33A3E48D092}" name="列8"/>
+    <tableColumn id="9" xr3:uid="{38AF0DE9-3B46-4C46-9946-4235FDB2D230}" name="列9"/>
+    <tableColumn id="10" xr3:uid="{1F73E10D-8272-477E-A966-186C3BD9DC24}" name="列10"/>
+    <tableColumn id="11" xr3:uid="{F9F675B3-8240-40D5-8395-E8B5F50D5AE6}" name="列11"/>
+    <tableColumn id="12" xr3:uid="{3987D0DB-409F-4D40-B63A-1284E9423322}" name="列12"/>
+    <tableColumn id="13" xr3:uid="{3F78BBC3-E044-4629-AF89-A1722D126085}" name="列13"/>
+    <tableColumn id="14" xr3:uid="{5F47F176-73E4-4916-90C9-CF98A0FFBDE2}" name="列14"/>
+    <tableColumn id="15" xr3:uid="{78D8784F-5600-4736-AD1D-DB056C439CF7}" name="列15"/>
+    <tableColumn id="16" xr3:uid="{F9D1DB9A-44F0-4012-9D55-E42DE39E5758}" name="列16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DBA61937-FDEF-4B65-8D2A-788CF00325EC}" name="表2_26" displayName="表2_26" ref="A15:P19" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
+  <autoFilter ref="A15:P19" xr:uid="{2C32C541-30BA-4B97-BDB9-07DCAD1DA48B}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{6EFDEEAD-277B-40CF-B792-2F89B4B2D7B1}" name="列1"/>
+    <tableColumn id="2" xr3:uid="{CA924DA8-A6B1-4243-BDC5-68B8D6A4D883}" name="列2"/>
+    <tableColumn id="3" xr3:uid="{C8CA55AA-26E5-474F-8B64-961E1F3F8D02}" name="列3"/>
+    <tableColumn id="4" xr3:uid="{E22CEF83-07CF-44FE-A14E-44BE4C6F789E}" name="列4"/>
+    <tableColumn id="5" xr3:uid="{8ECA6C14-2C42-4117-9310-6716645CA88D}" name="列5"/>
+    <tableColumn id="6" xr3:uid="{4FF6FBEC-7EB2-4337-A578-FA95E29235C6}" name="列6"/>
+    <tableColumn id="7" xr3:uid="{2E42FFF1-3752-4E24-81F7-D1F67335C12E}" name="列7"/>
+    <tableColumn id="8" xr3:uid="{F43ACC8D-D975-471A-8642-82117DE1D1E1}" name="列8"/>
+    <tableColumn id="9" xr3:uid="{DA060EA6-0E88-4516-9618-B3CDC8141E33}" name="列9"/>
+    <tableColumn id="10" xr3:uid="{B8C369C1-2A91-485F-8ED7-447442036AA8}" name="列10"/>
+    <tableColumn id="11" xr3:uid="{6AE85F0C-C6B0-493E-B82F-5C4927549E67}" name="列11"/>
+    <tableColumn id="12" xr3:uid="{AA7A8F68-9293-42E6-A3F1-3CC327254918}" name="列12"/>
+    <tableColumn id="13" xr3:uid="{4882E04C-8F4A-4416-87DC-4BC4062FC40D}" name="列13"/>
+    <tableColumn id="14" xr3:uid="{A82FE62C-D26F-4D7B-AFD6-18828C90F136}" name="列14"/>
+    <tableColumn id="15" xr3:uid="{0EC9EBD9-FE25-4337-A222-8E39542814BC}" name="列15"/>
+    <tableColumn id="16" xr3:uid="{C9D47429-023C-4696-9DF5-90BF72B64E0F}" name="列16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3434,19 +7194,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F73" sqref="F72:F73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.58203125" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3466,7 +7226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3486,12 +7246,12 @@
         <v>23.725000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -3529,7 +7289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -3567,20 +7327,20 @@
         <v>38.725000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="1:6" ht="81.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:6" ht="84" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B43" s="3"/>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="9"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="57"/>
     </row>
-    <row r="44" spans="1:6" ht="81.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="84" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
@@ -3600,7 +7360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>2</v>
       </c>
@@ -3620,7 +7380,7 @@
         <v>4.6375000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>4</v>
       </c>
@@ -3640,7 +7400,7 @@
         <v>9.2750000000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>6</v>
       </c>
@@ -3660,7 +7420,7 @@
         <v>13.9625</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>8</v>
       </c>
@@ -3680,7 +7440,7 @@
         <v>18.662500000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>10</v>
       </c>
@@ -3700,229 +7460,249 @@
         <v>23.725000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
+    <row r="50" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A50" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="18"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="66"/>
     </row>
-    <row r="51" spans="1:16" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="12" t="s">
+    <row r="51" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="19"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="67"/>
     </row>
-    <row r="53" spans="1:16" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="28" t="s">
+    <row r="53" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="C53" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="29" t="s">
+      <c r="D53" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="29" t="s">
+      <c r="E53" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F53" s="29" t="s">
+      <c r="G53" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G53" s="29" t="s">
+      <c r="H53" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H53" s="24" t="s">
+      <c r="I53" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I53" s="24" t="s">
+      <c r="J53" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J53" s="24" t="s">
+      <c r="K53" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="K53" s="29" t="s">
+      <c r="L53" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="L53" s="29" t="s">
+      <c r="M53" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="M53" s="29" t="s">
+      <c r="N53" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="N53" s="29" t="s">
+      <c r="O53" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="O53" s="29" t="s">
+      <c r="P53" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="P53" s="29" t="s">
+    </row>
+    <row r="54" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="11">
+        <v>-35</v>
+      </c>
+      <c r="C54" s="11">
+        <v>-30</v>
+      </c>
+      <c r="D54" s="11">
+        <v>-25</v>
+      </c>
+      <c r="E54" s="11">
+        <v>-20</v>
+      </c>
+      <c r="F54" s="11">
+        <v>-15</v>
+      </c>
+      <c r="G54" s="11">
+        <v>-10</v>
+      </c>
+      <c r="H54" s="12">
+        <v>-5</v>
+      </c>
+      <c r="I54" s="12">
+        <v>0</v>
+      </c>
+      <c r="J54" s="12">
+        <v>5</v>
+      </c>
+      <c r="K54" s="11">
+        <v>10</v>
+      </c>
+      <c r="L54" s="11">
+        <v>15</v>
+      </c>
+      <c r="M54" s="11">
+        <v>20</v>
+      </c>
+      <c r="N54" s="11">
+        <v>25</v>
+      </c>
+      <c r="O54" s="11">
+        <v>30</v>
+      </c>
+      <c r="P54" s="11">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="20" t="s">
+    <row r="55" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" s="13">
+        <v>5.17</v>
+      </c>
+      <c r="C55" s="14">
+        <v>5.38</v>
+      </c>
+      <c r="D55" s="14">
+        <v>5.57</v>
+      </c>
+      <c r="E55" s="14">
+        <v>5.74</v>
+      </c>
+      <c r="F55" s="13">
+        <v>5.87</v>
+      </c>
+      <c r="G55" s="14">
+        <v>5.98</v>
+      </c>
+      <c r="H55" s="14">
+        <v>6.04</v>
+      </c>
+      <c r="I55" s="13">
+        <v>6.06</v>
+      </c>
+      <c r="J55" s="14">
+        <v>6.04</v>
+      </c>
+      <c r="K55" s="14">
+        <v>5.98</v>
+      </c>
+      <c r="L55" s="14">
+        <v>5.89</v>
+      </c>
+      <c r="M55" s="14">
+        <v>5.74</v>
+      </c>
+      <c r="N55" s="14">
+        <v>5.6</v>
+      </c>
+      <c r="O55" s="14">
+        <v>5.42</v>
+      </c>
+      <c r="P55" s="14">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="35.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="16">
+        <f>2.926/120*B55</f>
+        <v>0.12606183333333332</v>
+      </c>
+      <c r="C56" s="16">
+        <f t="shared" ref="C56:P56" si="0">2.926/120*C55</f>
+        <v>0.13118233333333332</v>
+      </c>
+      <c r="D56" s="16">
+        <f t="shared" si="0"/>
+        <v>0.13581516666666668</v>
+      </c>
+      <c r="E56" s="16">
+        <f t="shared" si="0"/>
+        <v>0.13996033333333333</v>
+      </c>
+      <c r="F56" s="16">
+        <f t="shared" si="0"/>
+        <v>0.14313016666666667</v>
+      </c>
+      <c r="G56" s="16">
+        <f t="shared" si="0"/>
+        <v>0.14581233333333335</v>
+      </c>
+      <c r="H56" s="16">
+        <f t="shared" si="0"/>
+        <v>0.14727533333333334</v>
+      </c>
+      <c r="I56" s="16">
+        <f t="shared" si="0"/>
+        <v>0.14776299999999998</v>
+      </c>
+      <c r="J56" s="16">
+        <f t="shared" si="0"/>
+        <v>0.14727533333333334</v>
+      </c>
+      <c r="K56" s="16">
+        <f t="shared" si="0"/>
+        <v>0.14581233333333335</v>
+      </c>
+      <c r="L56" s="16">
+        <f t="shared" si="0"/>
+        <v>0.14361783333333333</v>
+      </c>
+      <c r="M56" s="16">
+        <f t="shared" si="0"/>
+        <v>0.13996033333333333</v>
+      </c>
+      <c r="N56" s="16">
+        <f t="shared" si="0"/>
+        <v>0.13654666666666665</v>
+      </c>
+      <c r="O56" s="16">
+        <f t="shared" si="0"/>
+        <v>0.13215766666666667</v>
+      </c>
+      <c r="P56" s="16">
+        <f t="shared" si="0"/>
+        <v>0.12679333333333334</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="21">
-        <v>-35</v>
-      </c>
-      <c r="C54" s="21">
-        <v>-30</v>
-      </c>
-      <c r="D54" s="21">
-        <v>-25</v>
-      </c>
-      <c r="E54" s="21">
-        <v>-20</v>
-      </c>
-      <c r="F54" s="21">
-        <v>-15</v>
-      </c>
-      <c r="G54" s="21">
-        <v>-10</v>
-      </c>
-      <c r="H54" s="22">
-        <v>-5</v>
-      </c>
-      <c r="I54" s="22">
-        <v>0</v>
-      </c>
-      <c r="J54" s="22">
-        <v>5</v>
-      </c>
-      <c r="K54" s="21">
-        <v>10</v>
-      </c>
-      <c r="L54" s="21">
-        <v>15</v>
-      </c>
-      <c r="M54" s="21">
-        <v>20</v>
-      </c>
-      <c r="N54" s="21">
-        <v>25</v>
-      </c>
-      <c r="O54" s="21">
-        <v>30</v>
-      </c>
-      <c r="P54" s="21">
-        <v>35</v>
-      </c>
     </row>
-    <row r="55" spans="1:16" ht="81.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55" s="24">
-        <v>5.17</v>
-      </c>
-      <c r="C55" s="25">
-        <v>5.38</v>
-      </c>
-      <c r="D55" s="25">
-        <v>5.57</v>
-      </c>
-      <c r="E55" s="25">
-        <v>5.74</v>
-      </c>
-      <c r="F55" s="24">
-        <v>5.87</v>
-      </c>
-      <c r="G55" s="25">
-        <v>5.98</v>
-      </c>
-      <c r="H55" s="25">
-        <v>6.04</v>
-      </c>
-      <c r="I55" s="24">
-        <v>6.06</v>
-      </c>
-      <c r="J55" s="25">
-        <v>6.04</v>
-      </c>
-      <c r="K55" s="25">
-        <v>5.98</v>
-      </c>
-      <c r="L55" s="25">
-        <v>5.89</v>
-      </c>
-      <c r="M55" s="25">
-        <v>5.74</v>
-      </c>
-      <c r="N55" s="25">
-        <v>5.6</v>
-      </c>
-      <c r="O55" s="25">
-        <v>5.42</v>
-      </c>
-      <c r="P55" s="25">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="35.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E56" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F56" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H56" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I56" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="J56" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="K56" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L56" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="M56" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="N56" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="O56" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="P56" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>23</v>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3942,4 +7722,2693 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A906B8-4809-4A38-B7F7-2E129107FAF0}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.5546875" defaultRowHeight="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+    </row>
+    <row r="2" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="53">
+        <v>-0.3</v>
+      </c>
+      <c r="B3" s="54">
+        <v>0</v>
+      </c>
+      <c r="C3" s="53">
+        <v>-1.2</v>
+      </c>
+      <c r="D3" s="53">
+        <v>0.85</v>
+      </c>
+      <c r="E3" s="53">
+        <v>-0.85</v>
+      </c>
+      <c r="F3" s="53">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="G3" s="52">
+        <f>-(C3-D3+E3-F3)/4</f>
+        <v>0.98124999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="54">
+        <v>14.9</v>
+      </c>
+      <c r="B4" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="54">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="D4" s="54">
+        <v>4.75</v>
+      </c>
+      <c r="E4" s="54">
+        <v>-2.85</v>
+      </c>
+      <c r="F4" s="53">
+        <v>3.8</v>
+      </c>
+      <c r="G4" s="52">
+        <f t="shared" ref="G4:G13" si="0">-(C4-D4+E4-F4)/4</f>
+        <v>4.125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="54">
+        <v>29.9</v>
+      </c>
+      <c r="B5" s="54">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="54">
+        <v>-8.9</v>
+      </c>
+      <c r="D5" s="53">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="E5" s="54">
+        <v>-6.7</v>
+      </c>
+      <c r="F5" s="54">
+        <v>7.625</v>
+      </c>
+      <c r="G5" s="52">
+        <f t="shared" si="0"/>
+        <v>7.9437500000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="54">
+        <v>44.7</v>
+      </c>
+      <c r="B6" s="54">
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="54">
+        <v>-12.8</v>
+      </c>
+      <c r="D6" s="54">
+        <v>12.4</v>
+      </c>
+      <c r="E6" s="54">
+        <v>-10.6</v>
+      </c>
+      <c r="F6" s="54">
+        <v>11.5</v>
+      </c>
+      <c r="G6" s="52">
+        <f t="shared" si="0"/>
+        <v>11.825000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="54">
+        <v>59.9</v>
+      </c>
+      <c r="B7" s="54">
+        <v>0.4</v>
+      </c>
+      <c r="C7" s="54">
+        <v>-16.649999999999999</v>
+      </c>
+      <c r="D7" s="54">
+        <v>16.3</v>
+      </c>
+      <c r="E7" s="54">
+        <v>-14.4</v>
+      </c>
+      <c r="F7" s="54">
+        <v>15.362500000000001</v>
+      </c>
+      <c r="G7" s="52">
+        <f t="shared" si="0"/>
+        <v>15.678125000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="54">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="B8" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="54">
+        <v>-20.6</v>
+      </c>
+      <c r="D8" s="54">
+        <v>20.2</v>
+      </c>
+      <c r="E8" s="54">
+        <v>-18.3</v>
+      </c>
+      <c r="F8" s="54">
+        <v>19.274999999999999</v>
+      </c>
+      <c r="G8" s="52">
+        <f t="shared" si="0"/>
+        <v>19.59375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="54">
+        <v>89.7</v>
+      </c>
+      <c r="B9" s="54">
+        <v>0.6</v>
+      </c>
+      <c r="C9" s="54">
+        <v>-24.55</v>
+      </c>
+      <c r="D9" s="54">
+        <v>24.15</v>
+      </c>
+      <c r="E9" s="54">
+        <v>-22.2</v>
+      </c>
+      <c r="F9" s="54">
+        <v>23.2</v>
+      </c>
+      <c r="G9" s="52">
+        <f t="shared" si="0"/>
+        <v>23.525000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="54">
+        <v>104.8</v>
+      </c>
+      <c r="B10" s="54">
+        <v>0.7</v>
+      </c>
+      <c r="C10" s="54">
+        <v>-28.25</v>
+      </c>
+      <c r="D10" s="54">
+        <v>27.95</v>
+      </c>
+      <c r="E10" s="54">
+        <v>-26.1</v>
+      </c>
+      <c r="F10" s="54">
+        <v>27.087499999999999</v>
+      </c>
+      <c r="G10" s="52">
+        <f t="shared" si="0"/>
+        <v>27.346875000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="54">
+        <v>120.1</v>
+      </c>
+      <c r="B11" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="C11" s="54">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="D11" s="54">
+        <v>31.9</v>
+      </c>
+      <c r="E11" s="54">
+        <v>-29.9</v>
+      </c>
+      <c r="F11" s="54">
+        <v>30.925000000000001</v>
+      </c>
+      <c r="G11" s="52">
+        <f t="shared" si="0"/>
+        <v>31.256249999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="54">
+        <v>134.30000000000001</v>
+      </c>
+      <c r="B12" s="54">
+        <v>0.9</v>
+      </c>
+      <c r="C12" s="54">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="D12" s="54">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="E12" s="54">
+        <v>-33.85</v>
+      </c>
+      <c r="F12" s="54">
+        <v>34.85</v>
+      </c>
+      <c r="G12" s="52">
+        <f t="shared" si="0"/>
+        <v>35.174999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="54">
+        <v>150</v>
+      </c>
+      <c r="B13" s="54">
+        <v>1</v>
+      </c>
+      <c r="C13" s="54">
+        <v>-40</v>
+      </c>
+      <c r="D13" s="54">
+        <v>39.6</v>
+      </c>
+      <c r="E13" s="54">
+        <v>-37.799999999999997</v>
+      </c>
+      <c r="F13" s="54">
+        <v>38.725000000000001</v>
+      </c>
+      <c r="G13" s="52">
+        <f t="shared" si="0"/>
+        <v>39.03125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A14:G14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B219307-2CC5-448E-AEF1-4D1534249574}">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="88"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="91">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="C2" s="91">
+        <v>3.8</v>
+      </c>
+      <c r="D2" s="91">
+        <v>7.625</v>
+      </c>
+      <c r="E2" s="91">
+        <v>11.5</v>
+      </c>
+      <c r="F2" s="91">
+        <v>15.362500000000001</v>
+      </c>
+      <c r="G2" s="91">
+        <v>19.274999999999999</v>
+      </c>
+      <c r="H2" s="91">
+        <v>23.2</v>
+      </c>
+      <c r="I2" s="91">
+        <v>27.087499999999999</v>
+      </c>
+      <c r="J2" s="91">
+        <v>30.925000000000001</v>
+      </c>
+      <c r="K2" s="91">
+        <v>34.85</v>
+      </c>
+      <c r="L2" s="91">
+        <v>38.725000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="91">
+        <v>0</v>
+      </c>
+      <c r="C3" s="91">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="91">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="91">
+        <v>0.3</v>
+      </c>
+      <c r="F3" s="91">
+        <v>0.4</v>
+      </c>
+      <c r="G3" s="91">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="91">
+        <v>0.6</v>
+      </c>
+      <c r="I3" s="91">
+        <v>0.7</v>
+      </c>
+      <c r="J3" s="91">
+        <v>0.8</v>
+      </c>
+      <c r="K3" s="91">
+        <v>0.9</v>
+      </c>
+      <c r="L3" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="52">
+        <f>B2/1000/0.01/25.66</f>
+        <v>3.9945440374123137E-3</v>
+      </c>
+      <c r="C4" s="52">
+        <f t="shared" ref="C4:L4" si="0">C2/1000/0.01/25.66</f>
+        <v>1.4809041309431021E-2</v>
+      </c>
+      <c r="D4" s="52">
+        <f t="shared" si="0"/>
+        <v>2.9715510522213561E-2</v>
+      </c>
+      <c r="E4" s="52">
+        <f t="shared" si="0"/>
+        <v>4.4816835541699136E-2</v>
+      </c>
+      <c r="F4" s="52">
+        <f t="shared" si="0"/>
+        <v>5.9869446609508971E-2</v>
+      </c>
+      <c r="G4" s="52">
+        <f t="shared" si="0"/>
+        <v>7.5116913484021816E-2</v>
+      </c>
+      <c r="H4" s="52">
+        <f t="shared" si="0"/>
+        <v>9.041309431021044E-2</v>
+      </c>
+      <c r="I4" s="52">
+        <f t="shared" si="0"/>
+        <v>0.10556313328137178</v>
+      </c>
+      <c r="J4" s="52">
+        <f t="shared" si="0"/>
+        <v>0.1205183164458301</v>
+      </c>
+      <c r="K4" s="52">
+        <f t="shared" si="0"/>
+        <v>0.13581449727201869</v>
+      </c>
+      <c r="L4" s="52">
+        <f t="shared" si="0"/>
+        <v>0.1509158222915043</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C5AD87-0DA4-40E9-AC41-2BB20538BC6A}">
+  <dimension ref="A1:P19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:P19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="11">
+        <v>-35</v>
+      </c>
+      <c r="C2" s="11">
+        <v>-30</v>
+      </c>
+      <c r="D2" s="11">
+        <v>-25</v>
+      </c>
+      <c r="E2" s="11">
+        <v>-20</v>
+      </c>
+      <c r="F2" s="11">
+        <v>-15</v>
+      </c>
+      <c r="G2" s="11">
+        <v>-10</v>
+      </c>
+      <c r="H2" s="12">
+        <v>-5</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12">
+        <v>5</v>
+      </c>
+      <c r="K2" s="11">
+        <v>10</v>
+      </c>
+      <c r="L2" s="11">
+        <v>15</v>
+      </c>
+      <c r="M2" s="11">
+        <v>20</v>
+      </c>
+      <c r="N2" s="11">
+        <v>25</v>
+      </c>
+      <c r="O2" s="11">
+        <v>30</v>
+      </c>
+      <c r="P2" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="13">
+        <v>5.17</v>
+      </c>
+      <c r="C3" s="14">
+        <v>5.38</v>
+      </c>
+      <c r="D3" s="14">
+        <v>5.57</v>
+      </c>
+      <c r="E3" s="14">
+        <v>5.74</v>
+      </c>
+      <c r="F3" s="13">
+        <v>5.87</v>
+      </c>
+      <c r="G3" s="14">
+        <v>5.98</v>
+      </c>
+      <c r="H3" s="14">
+        <v>6.04</v>
+      </c>
+      <c r="I3" s="13">
+        <v>6.06</v>
+      </c>
+      <c r="J3" s="14">
+        <v>6.04</v>
+      </c>
+      <c r="K3" s="14">
+        <v>5.98</v>
+      </c>
+      <c r="L3" s="14">
+        <v>5.89</v>
+      </c>
+      <c r="M3" s="14">
+        <v>5.74</v>
+      </c>
+      <c r="N3" s="14">
+        <v>5.6</v>
+      </c>
+      <c r="O3" s="14">
+        <v>5.42</v>
+      </c>
+      <c r="P3" s="14">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="16">
+        <f>2.926/120*B3</f>
+        <v>0.12606183333333332</v>
+      </c>
+      <c r="C4" s="16">
+        <f t="shared" ref="C4:P4" si="0">2.926/120*C3</f>
+        <v>0.13118233333333332</v>
+      </c>
+      <c r="D4" s="16">
+        <f t="shared" si="0"/>
+        <v>0.13581516666666668</v>
+      </c>
+      <c r="E4" s="16">
+        <f t="shared" si="0"/>
+        <v>0.13996033333333333</v>
+      </c>
+      <c r="F4" s="16">
+        <f t="shared" si="0"/>
+        <v>0.14313016666666667</v>
+      </c>
+      <c r="G4" s="16">
+        <f t="shared" si="0"/>
+        <v>0.14581233333333335</v>
+      </c>
+      <c r="H4" s="16">
+        <f t="shared" si="0"/>
+        <v>0.14727533333333334</v>
+      </c>
+      <c r="I4" s="16">
+        <f t="shared" si="0"/>
+        <v>0.14776299999999998</v>
+      </c>
+      <c r="J4" s="16">
+        <f t="shared" si="0"/>
+        <v>0.14727533333333334</v>
+      </c>
+      <c r="K4" s="16">
+        <f t="shared" si="0"/>
+        <v>0.14581233333333335</v>
+      </c>
+      <c r="L4" s="16">
+        <f t="shared" si="0"/>
+        <v>0.14361783333333333</v>
+      </c>
+      <c r="M4" s="16">
+        <f t="shared" si="0"/>
+        <v>0.13996033333333333</v>
+      </c>
+      <c r="N4" s="16">
+        <f t="shared" si="0"/>
+        <v>0.13654666666666665</v>
+      </c>
+      <c r="O4" s="16">
+        <f t="shared" si="0"/>
+        <v>0.13215766666666667</v>
+      </c>
+      <c r="P4" s="16">
+        <f t="shared" si="0"/>
+        <v>0.12679333333333334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="11">
+        <v>-35</v>
+      </c>
+      <c r="C16" s="11">
+        <v>-30</v>
+      </c>
+      <c r="D16" s="11">
+        <v>-25</v>
+      </c>
+      <c r="E16" s="11">
+        <v>-20</v>
+      </c>
+      <c r="F16" s="11">
+        <v>-15</v>
+      </c>
+      <c r="G16" s="11">
+        <v>-10</v>
+      </c>
+      <c r="H16" s="12">
+        <v>-5</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12">
+        <v>5</v>
+      </c>
+      <c r="K16" s="11">
+        <v>10</v>
+      </c>
+      <c r="L16" s="11">
+        <v>15</v>
+      </c>
+      <c r="M16" s="11">
+        <v>20</v>
+      </c>
+      <c r="N16" s="11">
+        <v>25</v>
+      </c>
+      <c r="O16" s="11">
+        <v>30</v>
+      </c>
+      <c r="P16" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="13">
+        <v>5.17</v>
+      </c>
+      <c r="C17" s="14">
+        <v>5.38</v>
+      </c>
+      <c r="D17" s="14">
+        <v>5.57</v>
+      </c>
+      <c r="E17" s="14">
+        <v>5.74</v>
+      </c>
+      <c r="F17" s="13">
+        <v>5.87</v>
+      </c>
+      <c r="G17" s="14">
+        <v>5.98</v>
+      </c>
+      <c r="H17" s="14">
+        <v>6.04</v>
+      </c>
+      <c r="I17" s="13">
+        <v>6.06</v>
+      </c>
+      <c r="J17" s="14">
+        <v>6.04</v>
+      </c>
+      <c r="K17" s="14">
+        <v>5.98</v>
+      </c>
+      <c r="L17" s="14">
+        <v>5.89</v>
+      </c>
+      <c r="M17" s="14">
+        <v>5.74</v>
+      </c>
+      <c r="N17" s="14">
+        <v>5.6</v>
+      </c>
+      <c r="O17" s="14">
+        <v>5.42</v>
+      </c>
+      <c r="P17" s="14">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="16">
+        <f>2.926/120*B17</f>
+        <v>0.12606183333333332</v>
+      </c>
+      <c r="C18" s="16">
+        <f t="shared" ref="C18:P18" si="1">2.926/120*C17</f>
+        <v>0.13118233333333332</v>
+      </c>
+      <c r="D18" s="16">
+        <f t="shared" si="1"/>
+        <v>0.13581516666666668</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" si="1"/>
+        <v>0.13996033333333333</v>
+      </c>
+      <c r="F18" s="16">
+        <f t="shared" si="1"/>
+        <v>0.14313016666666667</v>
+      </c>
+      <c r="G18" s="16">
+        <f t="shared" si="1"/>
+        <v>0.14581233333333335</v>
+      </c>
+      <c r="H18" s="16">
+        <f t="shared" si="1"/>
+        <v>0.14727533333333334</v>
+      </c>
+      <c r="I18" s="16">
+        <f t="shared" si="1"/>
+        <v>0.14776299999999998</v>
+      </c>
+      <c r="J18" s="16">
+        <f t="shared" si="1"/>
+        <v>0.14727533333333334</v>
+      </c>
+      <c r="K18" s="16">
+        <f t="shared" si="1"/>
+        <v>0.14581233333333335</v>
+      </c>
+      <c r="L18" s="16">
+        <f t="shared" si="1"/>
+        <v>0.14361783333333333</v>
+      </c>
+      <c r="M18" s="16">
+        <f t="shared" si="1"/>
+        <v>0.13996033333333333</v>
+      </c>
+      <c r="N18" s="16">
+        <f t="shared" si="1"/>
+        <v>0.13654666666666665</v>
+      </c>
+      <c r="O18" s="16">
+        <f t="shared" si="1"/>
+        <v>0.13215766666666667</v>
+      </c>
+      <c r="P18" s="16">
+        <f t="shared" si="1"/>
+        <v>0.12679333333333334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19">
+        <f>4*PI()*10^(-7)*400*0.06*0.105^(2)/(2*(0.105^(2)+(B16/1000)^(2))^(3/2))*1000</f>
+        <v>0.12262120373782631</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:P19" si="2">4*PI()*10^(-7)*400*0.06*0.105^(2)/(2*(0.105^(2)+(C16/1000)^(2))^(3/2))*1000</f>
+        <v>0.12766802107842087</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>0.13221502765156315</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>0.13613988991683434</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>0.13932880894064636</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>0.14168363116809546</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>0.1431285564618576</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>0.14361566416410482</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>0.1431285564618576</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>0.14168363116809546</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>0.13932880894064636</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>0.13613988991683434</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>0.13221502765156315</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="2"/>
+        <v>0.12766802107842087</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="2"/>
+        <v>0.12262120373782631</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6C14A2-FFEE-4233-A90B-E8E1B1FAEAD9}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="97">
+        <v>0.2</v>
+      </c>
+      <c r="C1" s="97">
+        <v>0.4</v>
+      </c>
+      <c r="D1" s="97">
+        <v>0.6</v>
+      </c>
+      <c r="E1" s="97">
+        <v>0.8</v>
+      </c>
+      <c r="F1" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+    </row>
+    <row r="3" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="99">
+        <v>8.5</v>
+      </c>
+      <c r="C3" s="99">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="D3" s="99">
+        <v>23.5</v>
+      </c>
+      <c r="E3" s="99">
+        <v>31.5</v>
+      </c>
+      <c r="F3" s="99">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+    </row>
+    <row r="5" spans="1:6" ht="195.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="96">
+        <f>B3/1000/0.01/25.66</f>
+        <v>3.3125487139516761E-2</v>
+      </c>
+      <c r="C5" s="96">
+        <f t="shared" ref="C5:F5" si="0">C3/1000/0.01/25.66</f>
+        <v>6.2743569758378789E-2</v>
+      </c>
+      <c r="D5" s="96">
+        <f t="shared" si="0"/>
+        <v>9.1582229150428685E-2</v>
+      </c>
+      <c r="E5" s="96">
+        <f t="shared" si="0"/>
+        <v>0.12275915822291504</v>
+      </c>
+      <c r="F5" s="96">
+        <f t="shared" si="0"/>
+        <v>0.15315666406858922</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="101" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="102">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="102">
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="102">
+        <v>0.6</v>
+      </c>
+      <c r="E6" s="102">
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="101" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="102">
+        <v>0.2</v>
+      </c>
+      <c r="C7" s="102">
+        <v>0.4</v>
+      </c>
+      <c r="D7" s="102">
+        <v>0.6</v>
+      </c>
+      <c r="E7" s="102">
+        <v>0.8</v>
+      </c>
+      <c r="F7" s="102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="52.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="96">
+        <v>3.3125487139516761E-2</v>
+      </c>
+      <c r="C8" s="96">
+        <v>6.2743569758378789E-2</v>
+      </c>
+      <c r="D8" s="96">
+        <v>9.1582229150428685E-2</v>
+      </c>
+      <c r="E8" s="96">
+        <v>0.12275915822291504</v>
+      </c>
+      <c r="F8" s="96">
+        <v>0.15315666406858922</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29787B24-86C4-4049-AAF9-9013D9FF230B}">
+  <dimension ref="A1:P5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="84" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="22">
+        <v>-35</v>
+      </c>
+      <c r="C1" s="22">
+        <v>-30</v>
+      </c>
+      <c r="D1" s="22">
+        <v>-25</v>
+      </c>
+      <c r="E1" s="22">
+        <v>-20</v>
+      </c>
+      <c r="F1" s="22">
+        <v>-15</v>
+      </c>
+      <c r="G1" s="22">
+        <v>-10</v>
+      </c>
+      <c r="H1" s="23">
+        <v>-5</v>
+      </c>
+      <c r="I1" s="24">
+        <v>0</v>
+      </c>
+      <c r="J1" s="24">
+        <v>5</v>
+      </c>
+      <c r="K1" s="22">
+        <v>10</v>
+      </c>
+      <c r="L1" s="22">
+        <v>15</v>
+      </c>
+      <c r="M1" s="22">
+        <v>20</v>
+      </c>
+      <c r="N1" s="22">
+        <v>25</v>
+      </c>
+      <c r="O1" s="22">
+        <v>30</v>
+      </c>
+      <c r="P1" s="22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="6">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="C2" s="7">
+        <v>8.58</v>
+      </c>
+      <c r="D2" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="E2" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="F2" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="G2" s="25">
+        <v>8.6</v>
+      </c>
+      <c r="H2" s="26">
+        <v>8.59</v>
+      </c>
+      <c r="I2" s="7">
+        <v>8.59</v>
+      </c>
+      <c r="J2" s="6">
+        <v>8.59</v>
+      </c>
+      <c r="K2" s="7">
+        <v>8.59</v>
+      </c>
+      <c r="L2" s="7">
+        <v>8.59</v>
+      </c>
+      <c r="M2" s="7">
+        <v>8.58</v>
+      </c>
+      <c r="N2" s="7">
+        <v>8.57</v>
+      </c>
+      <c r="O2" s="7">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="P2" s="7">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="75">
+        <f>2.926/120*B2</f>
+        <v>0.20847750000000001</v>
+      </c>
+      <c r="C3" s="75">
+        <f t="shared" ref="C3:P3" si="0">2.926/120*C2</f>
+        <v>0.20920900000000001</v>
+      </c>
+      <c r="D3" s="75">
+        <f t="shared" si="0"/>
+        <v>0.20969666666666667</v>
+      </c>
+      <c r="E3" s="75">
+        <f t="shared" si="0"/>
+        <v>0.20969666666666667</v>
+      </c>
+      <c r="F3" s="75">
+        <f t="shared" si="0"/>
+        <v>0.20969666666666667</v>
+      </c>
+      <c r="G3" s="75">
+        <f t="shared" si="0"/>
+        <v>0.20969666666666667</v>
+      </c>
+      <c r="H3" s="75">
+        <f t="shared" si="0"/>
+        <v>0.20945283333333334</v>
+      </c>
+      <c r="I3" s="75">
+        <f t="shared" si="0"/>
+        <v>0.20945283333333334</v>
+      </c>
+      <c r="J3" s="75">
+        <f t="shared" si="0"/>
+        <v>0.20945283333333334</v>
+      </c>
+      <c r="K3" s="75">
+        <f t="shared" si="0"/>
+        <v>0.20945283333333334</v>
+      </c>
+      <c r="L3" s="75">
+        <f t="shared" si="0"/>
+        <v>0.20945283333333334</v>
+      </c>
+      <c r="M3" s="75">
+        <f t="shared" si="0"/>
+        <v>0.20920900000000001</v>
+      </c>
+      <c r="N3" s="75">
+        <f t="shared" si="0"/>
+        <v>0.20896516666666667</v>
+      </c>
+      <c r="O3" s="75">
+        <f t="shared" si="0"/>
+        <v>0.20823366666666665</v>
+      </c>
+      <c r="P3" s="75">
+        <f t="shared" si="0"/>
+        <v>0.20725833333333332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="78"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+    </row>
+    <row r="5" spans="1:16" ht="84" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6A7D8C-F115-4F3F-9664-F78CE70793D5}">
+  <dimension ref="A1:R5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="2.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="45.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="22">
+        <v>-35</v>
+      </c>
+      <c r="C1" s="22">
+        <v>-30</v>
+      </c>
+      <c r="D1" s="22">
+        <v>-25</v>
+      </c>
+      <c r="E1" s="22">
+        <v>-20</v>
+      </c>
+      <c r="F1" s="22">
+        <v>-15</v>
+      </c>
+      <c r="G1" s="22">
+        <v>-10</v>
+      </c>
+      <c r="H1" s="30">
+        <v>-5</v>
+      </c>
+      <c r="I1" s="24">
+        <v>0</v>
+      </c>
+      <c r="J1" s="24">
+        <v>5</v>
+      </c>
+      <c r="K1" s="22">
+        <v>10</v>
+      </c>
+      <c r="L1" s="22">
+        <v>15</v>
+      </c>
+      <c r="M1" s="22">
+        <v>20</v>
+      </c>
+      <c r="N1" s="22">
+        <v>25</v>
+      </c>
+      <c r="O1" s="22">
+        <v>30</v>
+      </c>
+      <c r="P1" s="22">
+        <v>35</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="80" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="78"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+    </row>
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72AC293F-EBBF-42D7-9724-495D68EE433F}">
+  <dimension ref="A1:AO15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="45"/>
+    <col min="2" max="2" width="18.6640625" style="45" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" ht="33" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="41">
+        <v>0</v>
+      </c>
+      <c r="C1" s="41">
+        <v>10</v>
+      </c>
+      <c r="D1" s="41">
+        <v>20</v>
+      </c>
+      <c r="E1" s="44">
+        <v>30</v>
+      </c>
+      <c r="F1" s="41">
+        <v>40</v>
+      </c>
+      <c r="G1" s="41">
+        <v>50</v>
+      </c>
+      <c r="H1" s="41">
+        <v>60</v>
+      </c>
+      <c r="I1" s="41">
+        <v>70</v>
+      </c>
+      <c r="J1" s="41">
+        <v>80</v>
+      </c>
+      <c r="K1" s="41">
+        <v>90</v>
+      </c>
+      <c r="L1" s="43">
+        <v>100</v>
+      </c>
+      <c r="M1" s="43">
+        <v>110</v>
+      </c>
+      <c r="N1" s="43">
+        <v>120</v>
+      </c>
+      <c r="O1" s="46">
+        <v>130</v>
+      </c>
+      <c r="P1" s="43">
+        <v>140</v>
+      </c>
+      <c r="Q1" s="43">
+        <v>150</v>
+      </c>
+      <c r="R1" s="43">
+        <v>160</v>
+      </c>
+      <c r="S1" s="43">
+        <v>170</v>
+      </c>
+      <c r="T1" s="43">
+        <v>180</v>
+      </c>
+      <c r="U1" s="43">
+        <v>190</v>
+      </c>
+      <c r="V1" s="43">
+        <v>200</v>
+      </c>
+      <c r="W1" s="43">
+        <v>210</v>
+      </c>
+      <c r="X1" s="43">
+        <v>220</v>
+      </c>
+      <c r="Y1" s="46">
+        <v>230</v>
+      </c>
+      <c r="Z1" s="43">
+        <v>240</v>
+      </c>
+      <c r="AA1" s="43">
+        <v>250</v>
+      </c>
+      <c r="AB1" s="43">
+        <v>260</v>
+      </c>
+      <c r="AC1" s="43">
+        <v>270</v>
+      </c>
+      <c r="AD1" s="43">
+        <v>280</v>
+      </c>
+      <c r="AE1" s="43">
+        <v>290</v>
+      </c>
+      <c r="AF1" s="43">
+        <v>300</v>
+      </c>
+      <c r="AG1" s="43">
+        <v>310</v>
+      </c>
+      <c r="AH1" s="43">
+        <v>320</v>
+      </c>
+      <c r="AI1" s="46">
+        <v>330</v>
+      </c>
+      <c r="AJ1" s="43">
+        <v>340</v>
+      </c>
+      <c r="AK1" s="43">
+        <v>350</v>
+      </c>
+      <c r="AL1" s="43">
+        <v>360</v>
+      </c>
+      <c r="AM1" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN1" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO1" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="43">
+        <v>8.59</v>
+      </c>
+      <c r="C2" s="43">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="D2" s="43">
+        <v>7.99</v>
+      </c>
+      <c r="E2" s="46">
+        <v>7.37</v>
+      </c>
+      <c r="F2" s="43">
+        <v>6.55</v>
+      </c>
+      <c r="G2" s="43">
+        <v>5.46</v>
+      </c>
+      <c r="H2" s="43">
+        <v>4.17</v>
+      </c>
+      <c r="I2" s="43">
+        <v>2.77</v>
+      </c>
+      <c r="J2" s="43">
+        <v>1.37</v>
+      </c>
+      <c r="K2" s="43">
+        <v>0</v>
+      </c>
+      <c r="L2" s="43">
+        <v>1.45</v>
+      </c>
+      <c r="M2" s="43">
+        <v>2.9</v>
+      </c>
+      <c r="N2" s="43">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O2" s="46">
+        <v>5.32</v>
+      </c>
+      <c r="P2" s="43">
+        <v>6.4</v>
+      </c>
+      <c r="Q2" s="43">
+        <v>7.33</v>
+      </c>
+      <c r="R2" s="43">
+        <v>7.92</v>
+      </c>
+      <c r="S2" s="43">
+        <v>8.35</v>
+      </c>
+      <c r="T2" s="43">
+        <v>8.51</v>
+      </c>
+      <c r="U2" s="43">
+        <v>8.42</v>
+      </c>
+      <c r="V2" s="43">
+        <v>8.07</v>
+      </c>
+      <c r="W2" s="43">
+        <v>7.52</v>
+      </c>
+      <c r="X2" s="43">
+        <v>6.68</v>
+      </c>
+      <c r="Y2" s="46">
+        <v>5.55</v>
+      </c>
+      <c r="Z2" s="43">
+        <v>4.42</v>
+      </c>
+      <c r="AA2" s="43">
+        <v>2.92</v>
+      </c>
+      <c r="AB2" s="43">
+        <v>1.58</v>
+      </c>
+      <c r="AC2" s="43">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="43">
+        <v>1.41</v>
+      </c>
+      <c r="AE2" s="43">
+        <v>2.96</v>
+      </c>
+      <c r="AF2" s="43">
+        <v>4.42</v>
+      </c>
+      <c r="AG2" s="43">
+        <v>5.59</v>
+      </c>
+      <c r="AH2" s="43">
+        <v>6.7</v>
+      </c>
+      <c r="AI2" s="46">
+        <v>7.52</v>
+      </c>
+      <c r="AJ2" s="43">
+        <v>8.15</v>
+      </c>
+      <c r="AK2" s="43">
+        <v>8.49</v>
+      </c>
+      <c r="AL2" s="43">
+        <v>8.59</v>
+      </c>
+      <c r="AM2" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN2" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO2" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" ht="49.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="43">
+        <f>8.59*COS(B1*PI()/180)</f>
+        <v>8.59</v>
+      </c>
+      <c r="C3" s="43">
+        <f t="shared" ref="C3:AL3" si="0">8.59*COS(C1*PI()/180)</f>
+        <v>8.4594985983748661</v>
+      </c>
+      <c r="D3" s="43">
+        <f t="shared" si="0"/>
+        <v>8.0719596125509536</v>
+      </c>
+      <c r="E3" s="43">
+        <f t="shared" si="0"/>
+        <v>7.4391582185083287</v>
+      </c>
+      <c r="F3" s="43">
+        <f t="shared" si="0"/>
+        <v>6.5803217663920206</v>
+      </c>
+      <c r="G3" s="43">
+        <f t="shared" si="0"/>
+        <v>5.5215455672073732</v>
+      </c>
+      <c r="H3" s="43">
+        <f t="shared" si="0"/>
+        <v>4.2950000000000008</v>
+      </c>
+      <c r="I3" s="43">
+        <f t="shared" si="0"/>
+        <v>2.9379530311674951</v>
+      </c>
+      <c r="J3" s="43">
+        <f t="shared" si="0"/>
+        <v>1.4916378461589321</v>
+      </c>
+      <c r="K3" s="43">
+        <f t="shared" si="0"/>
+        <v>5.2620126138325233E-16</v>
+      </c>
+      <c r="L3" s="43">
+        <f t="shared" si="0"/>
+        <v>-1.4916378461589312</v>
+      </c>
+      <c r="M3" s="43">
+        <f t="shared" si="0"/>
+        <v>-2.9379530311674942</v>
+      </c>
+      <c r="N3" s="43">
+        <f t="shared" si="0"/>
+        <v>-4.2949999999999982</v>
+      </c>
+      <c r="O3" s="43">
+        <f t="shared" si="0"/>
+        <v>-5.5215455672073732</v>
+      </c>
+      <c r="P3" s="43">
+        <f t="shared" si="0"/>
+        <v>-6.5803217663920197</v>
+      </c>
+      <c r="Q3" s="43">
+        <f t="shared" si="0"/>
+        <v>-7.4391582185083287</v>
+      </c>
+      <c r="R3" s="43">
+        <f t="shared" si="0"/>
+        <v>-8.0719596125509518</v>
+      </c>
+      <c r="S3" s="43">
+        <f t="shared" si="0"/>
+        <v>-8.4594985983748661</v>
+      </c>
+      <c r="T3" s="43">
+        <f t="shared" si="0"/>
+        <v>-8.59</v>
+      </c>
+      <c r="U3" s="43">
+        <f t="shared" si="0"/>
+        <v>-8.4594985983748661</v>
+      </c>
+      <c r="V3" s="43">
+        <f t="shared" si="0"/>
+        <v>-8.0719596125509536</v>
+      </c>
+      <c r="W3" s="43">
+        <f t="shared" si="0"/>
+        <v>-7.4391582185083278</v>
+      </c>
+      <c r="X3" s="43">
+        <f t="shared" si="0"/>
+        <v>-6.5803217663920206</v>
+      </c>
+      <c r="Y3" s="43">
+        <f t="shared" si="0"/>
+        <v>-5.5215455672073741</v>
+      </c>
+      <c r="Z3" s="43">
+        <f t="shared" si="0"/>
+        <v>-4.2950000000000035</v>
+      </c>
+      <c r="AA3" s="43">
+        <f t="shared" si="0"/>
+        <v>-2.9379530311675</v>
+      </c>
+      <c r="AB3" s="43">
+        <f t="shared" si="0"/>
+        <v>-1.4916378461589315</v>
+      </c>
+      <c r="AC3" s="43">
+        <f t="shared" si="0"/>
+        <v>-1.5786037841497568E-15</v>
+      </c>
+      <c r="AD3" s="43">
+        <f t="shared" si="0"/>
+        <v>1.4916378461589284</v>
+      </c>
+      <c r="AE3" s="43">
+        <f t="shared" si="0"/>
+        <v>2.9379530311674893</v>
+      </c>
+      <c r="AF3" s="43">
+        <f t="shared" si="0"/>
+        <v>4.2950000000000008</v>
+      </c>
+      <c r="AG3" s="43">
+        <f t="shared" si="0"/>
+        <v>5.5215455672073723</v>
+      </c>
+      <c r="AH3" s="43">
+        <f t="shared" si="0"/>
+        <v>6.5803217663920188</v>
+      </c>
+      <c r="AI3" s="43">
+        <f t="shared" si="0"/>
+        <v>7.4391582185083251</v>
+      </c>
+      <c r="AJ3" s="43">
+        <f t="shared" si="0"/>
+        <v>8.0719596125509536</v>
+      </c>
+      <c r="AK3" s="43">
+        <f t="shared" si="0"/>
+        <v>8.4594985983748661</v>
+      </c>
+      <c r="AL3" s="43">
+        <f t="shared" si="0"/>
+        <v>8.59</v>
+      </c>
+      <c r="AM3" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN3" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO3" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" ht="33" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="43">
+        <v>100</v>
+      </c>
+      <c r="C4" s="43">
+        <v>110</v>
+      </c>
+      <c r="D4" s="43">
+        <v>120</v>
+      </c>
+      <c r="E4" s="46">
+        <v>130</v>
+      </c>
+      <c r="F4" s="43">
+        <v>140</v>
+      </c>
+      <c r="G4" s="43">
+        <v>150</v>
+      </c>
+      <c r="H4" s="43">
+        <v>160</v>
+      </c>
+      <c r="I4" s="43">
+        <v>170</v>
+      </c>
+      <c r="J4" s="43">
+        <v>180</v>
+      </c>
+      <c r="K4" s="43">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="43">
+        <v>1.45</v>
+      </c>
+      <c r="C5" s="43">
+        <v>2.9</v>
+      </c>
+      <c r="D5" s="43">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E5" s="46">
+        <v>5.32</v>
+      </c>
+      <c r="F5" s="43">
+        <v>6.4</v>
+      </c>
+      <c r="G5" s="43">
+        <v>7.33</v>
+      </c>
+      <c r="H5" s="43">
+        <v>7.92</v>
+      </c>
+      <c r="I5" s="43">
+        <v>8.35</v>
+      </c>
+      <c r="J5" s="43">
+        <v>8.51</v>
+      </c>
+      <c r="K5" s="43">
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" ht="49.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="43">
+        <f t="shared" ref="B6:K6" si="1">8.59*COS(B4*PI()/180)</f>
+        <v>-1.4916378461589312</v>
+      </c>
+      <c r="C6" s="43">
+        <f t="shared" si="1"/>
+        <v>-2.9379530311674942</v>
+      </c>
+      <c r="D6" s="43">
+        <f t="shared" si="1"/>
+        <v>-4.2949999999999982</v>
+      </c>
+      <c r="E6" s="43">
+        <f t="shared" si="1"/>
+        <v>-5.5215455672073732</v>
+      </c>
+      <c r="F6" s="43">
+        <f t="shared" si="1"/>
+        <v>-6.5803217663920197</v>
+      </c>
+      <c r="G6" s="43">
+        <f t="shared" si="1"/>
+        <v>-7.4391582185083287</v>
+      </c>
+      <c r="H6" s="43">
+        <f t="shared" si="1"/>
+        <v>-8.0719596125509518</v>
+      </c>
+      <c r="I6" s="43">
+        <f t="shared" si="1"/>
+        <v>-8.4594985983748661</v>
+      </c>
+      <c r="J6" s="43">
+        <f t="shared" si="1"/>
+        <v>-8.59</v>
+      </c>
+      <c r="K6" s="43">
+        <f t="shared" si="1"/>
+        <v>-8.4594985983748661</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" ht="33" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="43">
+        <v>200</v>
+      </c>
+      <c r="C7" s="43">
+        <v>210</v>
+      </c>
+      <c r="D7" s="43">
+        <v>220</v>
+      </c>
+      <c r="E7" s="46">
+        <v>230</v>
+      </c>
+      <c r="F7" s="43">
+        <v>240</v>
+      </c>
+      <c r="G7" s="43">
+        <v>250</v>
+      </c>
+      <c r="H7" s="43">
+        <v>260</v>
+      </c>
+      <c r="I7" s="43">
+        <v>270</v>
+      </c>
+      <c r="J7" s="43">
+        <v>280</v>
+      </c>
+      <c r="K7" s="43">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="43">
+        <v>8.07</v>
+      </c>
+      <c r="C8" s="43">
+        <v>7.52</v>
+      </c>
+      <c r="D8" s="43">
+        <v>6.68</v>
+      </c>
+      <c r="E8" s="46">
+        <v>5.55</v>
+      </c>
+      <c r="F8" s="43">
+        <v>4.42</v>
+      </c>
+      <c r="G8" s="43">
+        <v>2.92</v>
+      </c>
+      <c r="H8" s="43">
+        <v>1.58</v>
+      </c>
+      <c r="I8" s="43">
+        <v>0</v>
+      </c>
+      <c r="J8" s="43">
+        <v>1.41</v>
+      </c>
+      <c r="K8" s="43">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" ht="49.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="43">
+        <f t="shared" ref="B9:K9" si="2">8.59*COS(B7*PI()/180)</f>
+        <v>-8.0719596125509536</v>
+      </c>
+      <c r="C9" s="43">
+        <f t="shared" si="2"/>
+        <v>-7.4391582185083278</v>
+      </c>
+      <c r="D9" s="43">
+        <f t="shared" si="2"/>
+        <v>-6.5803217663920206</v>
+      </c>
+      <c r="E9" s="43">
+        <f t="shared" si="2"/>
+        <v>-5.5215455672073741</v>
+      </c>
+      <c r="F9" s="43">
+        <f t="shared" si="2"/>
+        <v>-4.2950000000000035</v>
+      </c>
+      <c r="G9" s="43">
+        <f t="shared" si="2"/>
+        <v>-2.9379530311675</v>
+      </c>
+      <c r="H9" s="43">
+        <f t="shared" si="2"/>
+        <v>-1.4916378461589315</v>
+      </c>
+      <c r="I9" s="43">
+        <f t="shared" si="2"/>
+        <v>-1.5786037841497568E-15</v>
+      </c>
+      <c r="J9" s="43">
+        <f t="shared" si="2"/>
+        <v>1.4916378461589284</v>
+      </c>
+      <c r="K9" s="43">
+        <f t="shared" si="2"/>
+        <v>2.9379530311674893</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" ht="33" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="43">
+        <v>300</v>
+      </c>
+      <c r="C10" s="43">
+        <v>310</v>
+      </c>
+      <c r="D10" s="43">
+        <v>320</v>
+      </c>
+      <c r="E10" s="46">
+        <v>330</v>
+      </c>
+      <c r="F10" s="43">
+        <v>340</v>
+      </c>
+      <c r="G10" s="43">
+        <v>350</v>
+      </c>
+      <c r="H10" s="43">
+        <v>360</v>
+      </c>
+      <c r="I10" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="43">
+        <v>4.42</v>
+      </c>
+      <c r="C11" s="43">
+        <v>5.59</v>
+      </c>
+      <c r="D11" s="43">
+        <v>6.7</v>
+      </c>
+      <c r="E11" s="46">
+        <v>7.52</v>
+      </c>
+      <c r="F11" s="43">
+        <v>8.15</v>
+      </c>
+      <c r="G11" s="43">
+        <v>8.49</v>
+      </c>
+      <c r="H11" s="43">
+        <v>8.59</v>
+      </c>
+      <c r="I11" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" ht="49.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="43">
+        <f t="shared" ref="B12:H12" si="3">8.59*COS(B10*PI()/180)</f>
+        <v>4.2950000000000008</v>
+      </c>
+      <c r="C12" s="43">
+        <f t="shared" si="3"/>
+        <v>5.5215455672073723</v>
+      </c>
+      <c r="D12" s="43">
+        <f t="shared" si="3"/>
+        <v>6.5803217663920188</v>
+      </c>
+      <c r="E12" s="43">
+        <f t="shared" si="3"/>
+        <v>7.4391582185083251</v>
+      </c>
+      <c r="F12" s="43">
+        <f t="shared" si="3"/>
+        <v>8.0719596125509536</v>
+      </c>
+      <c r="G12" s="43">
+        <f t="shared" si="3"/>
+        <v>8.4594985983748661</v>
+      </c>
+      <c r="H12" s="43">
+        <f t="shared" si="3"/>
+        <v>8.59</v>
+      </c>
+      <c r="I12" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="46"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B15" s="45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E13:F13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEC364B-689D-4280-A3EC-4ED63EB19A3A}">
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="49.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="49">
+        <v>20</v>
+      </c>
+      <c r="C1" s="49">
+        <v>30</v>
+      </c>
+      <c r="D1" s="49">
+        <v>40</v>
+      </c>
+      <c r="E1" s="49">
+        <v>50</v>
+      </c>
+      <c r="F1" s="49">
+        <v>60</v>
+      </c>
+      <c r="G1" s="49">
+        <v>70</v>
+      </c>
+      <c r="H1" s="35">
+        <v>80</v>
+      </c>
+      <c r="I1" s="49">
+        <v>90</v>
+      </c>
+      <c r="J1" s="49">
+        <v>100</v>
+      </c>
+      <c r="K1" s="49">
+        <v>110</v>
+      </c>
+      <c r="L1" s="49">
+        <v>120</v>
+      </c>
+      <c r="M1" s="49">
+        <v>130</v>
+      </c>
+      <c r="N1" s="49">
+        <v>140</v>
+      </c>
+      <c r="O1" s="49">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="37">
+        <v>1.39</v>
+      </c>
+      <c r="C2" s="37">
+        <v>2.12</v>
+      </c>
+      <c r="D2" s="37">
+        <v>28.4</v>
+      </c>
+      <c r="E2" s="37">
+        <v>3.56</v>
+      </c>
+      <c r="F2" s="37">
+        <v>4.29</v>
+      </c>
+      <c r="G2" s="50">
+        <v>4.99</v>
+      </c>
+      <c r="H2" s="38">
+        <v>5.72</v>
+      </c>
+      <c r="I2" s="37">
+        <v>6.42</v>
+      </c>
+      <c r="J2" s="37">
+        <v>7.15</v>
+      </c>
+      <c r="K2" s="37">
+        <v>7.87</v>
+      </c>
+      <c r="L2" s="37">
+        <v>8.59</v>
+      </c>
+      <c r="M2" s="37">
+        <v>9.32</v>
+      </c>
+      <c r="N2" s="37">
+        <v>9.44</v>
+      </c>
+      <c r="O2" s="37">
+        <v>9.52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="83" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="86"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+    </row>
+    <row r="5" spans="1:15" ht="33" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="38"/>
+    </row>
+    <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>